--- a/bank statement generator/bank_statements/statement_88.xlsx
+++ b/bank statement generator/bank_statements/statement_88.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 11.03.2024</t>
+          <t>KONTOSTAND AM 16.04.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,146 +759,130 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>15.03.</t>
+          <t>18.04.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>16.03.</t>
+          <t>19.04.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Erfurt</t>
+          <t>BURGER KING Helmstedt</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>17,11-</t>
+          <t>16,40-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>18.03.</t>
+          <t>21.04.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>19.03.</t>
+          <t>22.04.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-59329011</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 83829541</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>56,22-</t>
+          <t>83,15-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>19.03.</t>
+          <t>25.04.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>20.03.</t>
+          <t>26.04.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Eggenfelden</t>
+          <t>PAYPAL KXMGVC</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>36,01-</t>
+          <t>98,72-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>20.03.</t>
+          <t>28.04.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>21.03.</t>
+          <t>29.04.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Nordhausen</t>
+          <t>KARTENZ./28.04 ALDI SUED RO</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>39,72-</t>
+          <t>21,16-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>21.03.</t>
+          <t>01.05.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>22.03.</t>
+          <t>02.05.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./21.03 LIDL RO</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>60,39-</t>
+          <t>24,54-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>22.03.</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>23.03.</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>KARTENZ./22.03 LIDL RO</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="inlineStr">
-        <is>
-          <t>28,74-</t>
-        </is>
-      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="12" t="n"/>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 24.03.2024</t>
+          <t>KONTOSTAND AM 03.05.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>238,19-</t>
+          <t>243,97-</t>
         </is>
       </c>
     </row>
@@ -906,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 03.04.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 09.05.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
